--- a/results/DeterministicUSM/dataset_05/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_05/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -642,13 +642,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>69.33585754150637</v>
+        <v>78.93827369624272</v>
       </c>
       <c r="H2">
-        <v>18.39934986077737</v>
+        <v>29.83441121105321</v>
       </c>
       <c r="I2">
-        <v>50.936507680729</v>
+        <v>49.10386248518951</v>
       </c>
       <c r="J2">
         <v>0.1</v>
@@ -663,10 +663,10 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.7481605282876597</v>
+        <v>0.7212424520376578</v>
       </c>
       <c r="O2">
-        <v>76.07776529414923</v>
+        <v>76.07776529414922</v>
       </c>
       <c r="P2">
         <v>7.995441040410377</v>
@@ -678,19 +678,19 @@
         <v>50.06951878004062</v>
       </c>
       <c r="S2">
-        <v>9.515143055853795</v>
+        <v>9.515143055853793</v>
       </c>
       <c r="T2">
-        <v>3.768386278110424</v>
+        <v>2.645880059030535</v>
       </c>
       <c r="U2">
-        <v>1.326646866881857</v>
+        <v>0.9730037355007916</v>
       </c>
       <c r="V2">
-        <v>26.52706783526558</v>
+        <v>20.07486893036804</v>
       </c>
       <c r="W2">
-        <v>102.2867345221307</v>
+        <v>104.1193797176702</v>
       </c>
       <c r="X2">
         <v>153.2232422028597</v>
@@ -699,7 +699,7 @@
         <v>85.14091794912082</v>
       </c>
       <c r="Z2">
-        <v>1.201381626907711</v>
+        <v>1.222906473476016</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -722,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>31.2931217316828</v>
+        <v>47.36840927261172</v>
       </c>
       <c r="H3">
-        <v>14.2452478179063</v>
+        <v>21.50949412253058</v>
       </c>
       <c r="I3">
-        <v>17.0478739137765</v>
+        <v>25.85891515008115</v>
       </c>
       <c r="J3">
         <v>0.1</v>
@@ -743,10 +743,10 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.3693976212908782</v>
+        <v>0.5603174796995311</v>
       </c>
       <c r="O3">
-        <v>60.17749484304089</v>
+        <v>60.17749484304088</v>
       </c>
       <c r="P3">
         <v>14.02702464184723</v>
@@ -755,22 +755,22 @@
         <v>1.456312642122724</v>
       </c>
       <c r="R3">
-        <v>25.72273688390457</v>
+        <v>25.72273688390456</v>
       </c>
       <c r="S3">
-        <v>4.290111151834127</v>
+        <v>4.290111151834126</v>
       </c>
       <c r="T3">
-        <v>2.196741126001844</v>
+        <v>2.202209359400725</v>
       </c>
       <c r="U3">
-        <v>0.7869749557825355</v>
+        <v>0.7894611107113562</v>
       </c>
       <c r="V3">
-        <v>5.837220642168427</v>
+        <v>8.878006029268768</v>
       </c>
       <c r="W3">
-        <v>82.13694213986999</v>
+        <v>73.32590090356534</v>
       </c>
       <c r="X3">
         <v>99.18481605364649</v>
@@ -779,7 +779,7 @@
         <v>53.03434585245282</v>
       </c>
       <c r="Z3">
-        <v>1.548749981160957</v>
+        <v>1.382611583587092</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -802,13 +802,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>49.11727852798323</v>
+        <v>64.95091210640841</v>
       </c>
       <c r="H4">
-        <v>13.75696841901726</v>
+        <v>13.60863192487301</v>
       </c>
       <c r="I4">
-        <v>35.36031010896598</v>
+        <v>51.34228018153539</v>
       </c>
       <c r="J4">
         <v>0.1</v>
@@ -823,7 +823,7 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.6887171739147431</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>64.95091210640841</v>
@@ -841,16 +841,16 @@
         <v>4.772773079981328</v>
       </c>
       <c r="T4">
-        <v>3.570356275593746</v>
+        <v>4.772773079981328</v>
       </c>
       <c r="U4">
-        <v>1.272665387897233</v>
+        <v>1.562927494463523</v>
       </c>
       <c r="V4">
-        <v>17.8522925596874</v>
+        <v>30.0729751841173</v>
       </c>
       <c r="W4">
-        <v>74.74051729218603</v>
+        <v>58.75854721961661</v>
       </c>
       <c r="X4">
         <v>110.100827401152</v>
@@ -859,7 +859,7 @@
         <v>58.75854721961661</v>
       </c>
       <c r="Z4">
-        <v>1.271993962220254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -962,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>47.011732742712</v>
+        <v>51.30774626518667</v>
       </c>
       <c r="H6">
-        <v>14.91126434678209</v>
+        <v>21.77018531770416</v>
       </c>
       <c r="I6">
-        <v>32.10046839592991</v>
+        <v>29.53756094748251</v>
       </c>
       <c r="J6">
         <v>0.1</v>
@@ -983,10 +983,10 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.7453495697614148</v>
+        <v>0.6858407195952035</v>
       </c>
       <c r="O6">
-        <v>57.12135520516111</v>
+        <v>57.12135520516112</v>
       </c>
       <c r="P6">
         <v>14.05368642498697</v>
@@ -998,19 +998,19 @@
         <v>23.36027842446729</v>
       </c>
       <c r="S6">
-        <v>4.064510440733991</v>
+        <v>4.064510440733992</v>
       </c>
       <c r="T6">
-        <v>3.152766368390305</v>
+        <v>2.356789596249403</v>
       </c>
       <c r="U6">
-        <v>1.148280279622244</v>
+        <v>0.8573003523620232</v>
       </c>
       <c r="V6">
-        <v>14.97815760228577</v>
+        <v>10.8739734036282</v>
       </c>
       <c r="W6">
-        <v>60.48899277633652</v>
+        <v>63.05190022478391</v>
       </c>
       <c r="X6">
         <v>92.58946117226643</v>
@@ -1019,7 +1019,7 @@
         <v>49.52179239209229</v>
       </c>
       <c r="Z6">
-        <v>1.221462104953929</v>
+        <v>1.273215228672784</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1042,13 +1042,13 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>45.2558099187371</v>
+        <v>41.13669398925849</v>
       </c>
       <c r="H7">
-        <v>15.78736237757457</v>
+        <v>12.12579010898213</v>
       </c>
       <c r="I7">
-        <v>29.46844754116253</v>
+        <v>29.01090388027636</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -1063,7 +1063,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.5170419863466961</v>
+        <v>0.5090141021856971</v>
       </c>
       <c r="O7">
         <v>62.09671927395502</v>
@@ -1081,16 +1081,16 @@
         <v>12.17006096032523</v>
       </c>
       <c r="T7">
-        <v>2.866584603329402</v>
+        <v>3.392495962699094</v>
       </c>
       <c r="U7">
-        <v>1.053121287436042</v>
+        <v>1.221565922659589</v>
       </c>
       <c r="V7">
-        <v>12.84244014887188</v>
+        <v>14.19845189782108</v>
       </c>
       <c r="W7">
-        <v>57.50761611152033</v>
+        <v>57.96515977240651</v>
       </c>
       <c r="X7">
         <v>86.97606365268287</v>
@@ -1099,7 +1099,7 @@
         <v>29.98176083139742</v>
       </c>
       <c r="Z7">
-        <v>1.91808668059607</v>
+        <v>1.933347414061965</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1122,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>46.77683675998889</v>
+        <v>50.25781024410774</v>
       </c>
       <c r="H8">
-        <v>9.518435254398634</v>
+        <v>15.91145801681347</v>
       </c>
       <c r="I8">
-        <v>37.25840150559026</v>
+        <v>34.34635222729428</v>
       </c>
       <c r="J8">
         <v>0.1</v>
@@ -1143,7 +1143,7 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.6773565224806049</v>
+        <v>0.6244155617111857</v>
       </c>
       <c r="O8">
         <v>62.13379920424181</v>
@@ -1161,16 +1161,16 @@
         <v>8.71661859107914</v>
       </c>
       <c r="T8">
-        <v>4.914341014020398</v>
+        <v>3.158592392413119</v>
       </c>
       <c r="U8">
-        <v>1.592157668113715</v>
+        <v>1.150126482919643</v>
       </c>
       <c r="V8">
-        <v>22.10355182685556</v>
+        <v>16.04616298029305</v>
       </c>
       <c r="W8">
-        <v>54.0016510493511</v>
+        <v>56.91370032764708</v>
       </c>
       <c r="X8">
         <v>91.26005255494135</v>
@@ -1179,7 +1179,7 @@
         <v>36.25445318587778</v>
       </c>
       <c r="Z8">
-        <v>1.489517736551779</v>
+        <v>1.569840263093989</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1202,13 +1202,13 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>43.3356699521639</v>
+        <v>49.86658349281902</v>
       </c>
       <c r="H9">
-        <v>12.89775055474494</v>
+        <v>16.6667968969282</v>
       </c>
       <c r="I9">
-        <v>30.43791939741896</v>
+        <v>33.19978659589081</v>
       </c>
       <c r="J9">
         <v>0.1</v>
@@ -1223,7 +1223,7 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.4972323732620726</v>
+        <v>0.5423501017046837</v>
       </c>
       <c r="O9">
         <v>73.45652613579065</v>
@@ -1241,16 +1241,16 @@
         <v>6.000443938689431</v>
       </c>
       <c r="T9">
-        <v>3.35994015144146</v>
+        <v>2.991971630854261</v>
       </c>
       <c r="U9">
-        <v>1.211923161745482</v>
+        <v>1.095932578400923</v>
       </c>
       <c r="V9">
-        <v>14.80683676570792</v>
+        <v>14.93410089895578</v>
       </c>
       <c r="W9">
-        <v>75.47785326712523</v>
+        <v>72.71598606865336</v>
       </c>
       <c r="X9">
         <v>105.9157726645442</v>
@@ -1259,7 +1259,7 @@
         <v>44.70109511301584</v>
       </c>
       <c r="Z9">
-        <v>1.688501211800244</v>
+        <v>1.626715987266278</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1282,13 +1282,13 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>63.19825409314508</v>
+        <v>75.83927012742051</v>
       </c>
       <c r="H10">
-        <v>17.94010417003435</v>
+        <v>24.4574012946737</v>
       </c>
       <c r="I10">
-        <v>45.25814992311074</v>
+        <v>51.3818688327468</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -1303,7 +1303,7 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.7751857637145592</v>
+        <v>0.8800733856744548</v>
       </c>
       <c r="O10">
         <v>68.55325028934591</v>
@@ -1321,16 +1321,16 @@
         <v>6.740976659807948</v>
       </c>
       <c r="T10">
-        <v>3.522736183366548</v>
+        <v>3.100871969743436</v>
       </c>
       <c r="U10">
-        <v>1.259238012469581</v>
+        <v>1.131683352501538</v>
       </c>
       <c r="V10">
-        <v>22.66728880453945</v>
+        <v>23.70383494211501</v>
       </c>
       <c r="W10">
-        <v>74.39276602714708</v>
+        <v>68.26904711751101</v>
       </c>
       <c r="X10">
         <v>119.6509159502578</v>
@@ -1339,7 +1339,7 @@
         <v>61.26729741443572</v>
       </c>
       <c r="Z10">
-        <v>1.214232864295051</v>
+        <v>1.114282006854533</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1362,13 +1362,13 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>41.34403777386227</v>
+        <v>71.3313614923738</v>
       </c>
       <c r="H11">
-        <v>11.9209250646601</v>
+        <v>14.44296840617977</v>
       </c>
       <c r="I11">
-        <v>29.42311270920217</v>
+        <v>56.88839308619404</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -1383,7 +1383,7 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.4848291980233317</v>
+        <v>0.9373975578113939</v>
       </c>
       <c r="O11">
         <v>77.80095172340448</v>
@@ -1401,16 +1401,16 @@
         <v>4.546209328765015</v>
       </c>
       <c r="T11">
-        <v>3.468190392071818</v>
+        <v>4.93882971189309</v>
       </c>
       <c r="U11">
-        <v>1.243632957086051</v>
+        <v>1.597128402707992</v>
       </c>
       <c r="V11">
-        <v>14.59785741983771</v>
+        <v>33.82111802527015</v>
       </c>
       <c r="W11">
-        <v>82.70344327909505</v>
+        <v>55.23816290210319</v>
       </c>
       <c r="X11">
         <v>112.1265559882972</v>
@@ -1419,7 +1419,7 @@
         <v>51.43897192949591</v>
       </c>
       <c r="Z11">
-        <v>1.607797360189301</v>
+        <v>1.073858221307661</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1442,13 +1442,13 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>61.57338207235474</v>
+        <v>85.95851313091157</v>
       </c>
       <c r="H12">
-        <v>23.62177382395767</v>
+        <v>30.91528806495583</v>
       </c>
       <c r="I12">
-        <v>37.95160824839706</v>
+        <v>55.04322506595574</v>
       </c>
       <c r="J12">
         <v>0.1</v>
@@ -1463,7 +1463,7 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>0.6309204586351455</v>
+        <v>0.9150573165720087</v>
       </c>
       <c r="O12">
         <v>85.95851313091157</v>
@@ -1481,16 +1481,16 @@
         <v>3.33098281105344</v>
       </c>
       <c r="T12">
-        <v>2.60663667899088</v>
+        <v>2.780453248577368</v>
       </c>
       <c r="U12">
-        <v>0.9580607615994885</v>
+        <v>1.02261395346973</v>
       </c>
       <c r="V12">
-        <v>15.32051362828531</v>
+        <v>23.42882011519569</v>
       </c>
       <c r="W12">
-        <v>59.1402180839724</v>
+        <v>42.04860126641373</v>
       </c>
       <c r="X12">
         <v>97.09182633236946</v>
@@ -1499,7 +1499,7 @@
         <v>36.93906423855999</v>
       </c>
       <c r="Z12">
-        <v>1.601021014014671</v>
+        <v>1.138323401883039</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1522,13 +1522,13 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>73.8646212261007</v>
+        <v>71.05030816066282</v>
       </c>
       <c r="H13">
-        <v>20.23534604879325</v>
+        <v>23.44901496001456</v>
       </c>
       <c r="I13">
-        <v>53.62927517730744</v>
+        <v>47.60129320064826</v>
       </c>
       <c r="J13">
         <v>0.1</v>
@@ -1543,7 +1543,7 @@
         <v>0.1</v>
       </c>
       <c r="N13">
-        <v>0.563377685064025</v>
+        <v>0.5000534928128699</v>
       </c>
       <c r="O13">
         <v>116.0679517772487</v>
@@ -1561,16 +1561,16 @@
         <v>5.559995019575894</v>
       </c>
       <c r="T13">
-        <v>3.650277146137842</v>
+        <v>3.029991165164863</v>
       </c>
       <c r="U13">
-        <v>1.294803095160553</v>
+        <v>1.108559703729853</v>
       </c>
       <c r="V13">
-        <v>27.42848648168506</v>
+        <v>21.60666012381763</v>
       </c>
       <c r="W13">
-        <v>73.84527499635999</v>
+        <v>79.87325697301915</v>
       </c>
       <c r="X13">
         <v>127.4745501736674</v>
@@ -1579,7 +1579,7 @@
         <v>32.28214799108407</v>
       </c>
       <c r="Z13">
-        <v>2.287495708673262</v>
+        <v>2.474223741093038</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1602,13 +1602,13 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>43.57131224374115</v>
+        <v>53.39723776380144</v>
       </c>
       <c r="H14">
-        <v>8.936626615270219</v>
+        <v>19.49818629045683</v>
       </c>
       <c r="I14">
-        <v>34.63468562847093</v>
+        <v>33.89905147334461</v>
       </c>
       <c r="J14">
         <v>0.1</v>
@@ -1623,7 +1623,7 @@
         <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.5648549793222223</v>
+        <v>0.5528575666723724</v>
       </c>
       <c r="O14">
         <v>75.18083703950195</v>
@@ -1641,16 +1641,16 @@
         <v>5.422436548718595</v>
       </c>
       <c r="T14">
-        <v>4.87558830860068</v>
+        <v>2.73857460218934</v>
       </c>
       <c r="U14">
-        <v>1.584240775856042</v>
+        <v>1.007437566860482</v>
       </c>
       <c r="V14">
-        <v>20.47691734595948</v>
+        <v>14.25584611869438</v>
       </c>
       <c r="W14">
-        <v>61.42373881768768</v>
+        <v>62.159372972814</v>
       </c>
       <c r="X14">
         <v>96.05842444615861</v>
@@ -1659,7 +1659,7 @@
         <v>34.7423576744191</v>
       </c>
       <c r="Z14">
-        <v>1.767978425451367</v>
+        <v>1.789152410303522</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1682,13 +1682,13 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>81.22310343687813</v>
+        <v>63.97392608566522</v>
       </c>
       <c r="H15">
-        <v>15.78851299620327</v>
+        <v>24.71236392693485</v>
       </c>
       <c r="I15">
-        <v>65.43459044067487</v>
+        <v>39.26156215873037</v>
       </c>
       <c r="J15">
         <v>0.1</v>
@@ -1703,7 +1703,7 @@
         <v>0.1</v>
       </c>
       <c r="N15">
-        <v>0.9900460032600078</v>
+        <v>0.5940398256521046</v>
       </c>
       <c r="O15">
         <v>81.22310343687812</v>
@@ -1721,16 +1721,16 @@
         <v>5.368124811532249</v>
       </c>
       <c r="T15">
-        <v>5.144442890626255</v>
+        <v>2.588741662870133</v>
       </c>
       <c r="U15">
-        <v>1.63791708171783</v>
+        <v>0.9511719131991038</v>
       </c>
       <c r="V15">
-        <v>39.57431530926958</v>
+        <v>15.75585568267523</v>
       </c>
       <c r="W15">
-        <v>30.59180276529941</v>
+        <v>56.7648310472439</v>
       </c>
       <c r="X15">
         <v>96.02639320597427</v>
@@ -1739,7 +1739,7 @@
         <v>29.93391848741283</v>
       </c>
       <c r="Z15">
-        <v>1.02197788699676</v>
+        <v>1.896338131311256</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1762,13 +1762,13 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>52.07161797450521</v>
+        <v>67.39081339848271</v>
       </c>
       <c r="H16">
-        <v>17.67167570159068</v>
+        <v>23.65856254566167</v>
       </c>
       <c r="I16">
-        <v>34.39994227291453</v>
+        <v>43.73225085282103</v>
       </c>
       <c r="J16">
         <v>0.1</v>
@@ -1783,7 +1783,7 @@
         <v>0.1</v>
       </c>
       <c r="N16">
-        <v>0.468774884086448</v>
+        <v>0.5959481170557714</v>
       </c>
       <c r="O16">
         <v>86.75536753741616</v>
@@ -1801,16 +1801,16 @@
         <v>6.487488710077034</v>
       </c>
       <c r="T16">
-        <v>2.946614619564238</v>
+        <v>2.848474554124604</v>
       </c>
       <c r="U16">
-        <v>1.080656924781638</v>
+        <v>1.046783606819461</v>
       </c>
       <c r="V16">
-        <v>15.30292355349514</v>
+        <v>18.9668554191095</v>
       </c>
       <c r="W16">
-        <v>79.3814007293921</v>
+        <v>70.0490921494856</v>
       </c>
       <c r="X16">
         <v>113.7813430023066</v>
@@ -1819,7 +1819,7 @@
         <v>40.39869508175219</v>
       </c>
       <c r="Z16">
-        <v>1.964949624455769</v>
+        <v>1.733944425871475</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1842,13 +1842,13 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>61.6842019809997</v>
+        <v>53.69785023156294</v>
       </c>
       <c r="H17">
-        <v>21.89366598902378</v>
+        <v>18.45287385855329</v>
       </c>
       <c r="I17">
-        <v>39.79053599197591</v>
+        <v>35.24497637300965</v>
       </c>
       <c r="J17">
         <v>0.1</v>
@@ -1863,7 +1863,7 @@
         <v>0.1</v>
       </c>
       <c r="N17">
-        <v>0.559075790014181</v>
+        <v>0.4952085343546291</v>
       </c>
       <c r="O17">
         <v>81.10246617235975</v>
@@ -1881,16 +1881,16 @@
         <v>8.167026113916835</v>
       </c>
       <c r="T17">
-        <v>2.817445100876418</v>
+        <v>2.909999311932264</v>
       </c>
       <c r="U17">
-        <v>1.035830481693659</v>
+        <v>1.06815284473398</v>
       </c>
       <c r="V17">
-        <v>17.11240940452533</v>
+        <v>15.53448666747867</v>
       </c>
       <c r="W17">
-        <v>63.32366058572305</v>
+        <v>67.86922020468931</v>
       </c>
       <c r="X17">
         <v>103.114196577699</v>
@@ -1899,7 +1899,7 @@
         <v>31.94220755101149</v>
       </c>
       <c r="Z17">
-        <v>1.982444716276907</v>
+        <v>2.124750460540419</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1922,13 +1922,13 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>69.79365685200091</v>
+        <v>54.86972831023711</v>
       </c>
       <c r="H18">
-        <v>24.14094327869539</v>
+        <v>23.34726449209479</v>
       </c>
       <c r="I18">
-        <v>45.65271357330552</v>
+        <v>31.52246381814231</v>
       </c>
       <c r="J18">
         <v>0.1</v>
@@ -1943,10 +1943,10 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.6287377294126272</v>
+        <v>0.4341332809206648</v>
       </c>
       <c r="O18">
-        <v>80.71015725556808</v>
+        <v>80.71015725556806</v>
       </c>
       <c r="P18">
         <v>8.100050628191457</v>
@@ -1955,22 +1955,22 @@
         <v>2.298994119684045</v>
       </c>
       <c r="R18">
-        <v>53.98813786402141</v>
+        <v>53.9881378640214</v>
       </c>
       <c r="S18">
-        <v>9.964154665239256</v>
+        <v>9.964154665239255</v>
       </c>
       <c r="T18">
-        <v>2.891090710344963</v>
+        <v>2.350156624508005</v>
       </c>
       <c r="U18">
-        <v>1.061633839347558</v>
+        <v>0.8544819746619505</v>
       </c>
       <c r="V18">
-        <v>20.0238712748725</v>
+        <v>11.57264715198231</v>
       </c>
       <c r="W18">
-        <v>56.62019162366801</v>
+        <v>70.75044137883121</v>
       </c>
       <c r="X18">
         <v>102.2729051969735</v>
@@ -1979,7 +1979,7 @@
         <v>29.66279856959692</v>
       </c>
       <c r="Z18">
-        <v>1.908794663821817</v>
+        <v>2.385157328052902</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2002,13 +2002,13 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>46.73857784014745</v>
+        <v>88.96171290018209</v>
       </c>
       <c r="H19">
-        <v>14.93263845115741</v>
+        <v>43.95161287043712</v>
       </c>
       <c r="I19">
-        <v>31.80593938899004</v>
+        <v>45.01010002974498</v>
       </c>
       <c r="J19">
         <v>0.1</v>
@@ -2023,7 +2023,7 @@
         <v>0.1</v>
       </c>
       <c r="N19">
-        <v>0.4867351491090752</v>
+        <v>0.6888020970377625</v>
       </c>
       <c r="O19">
         <v>114.2126574186363</v>
@@ -2032,25 +2032,25 @@
         <v>48.86718268312983</v>
       </c>
       <c r="Q19">
-        <v>0.8489560662090826</v>
+        <v>0.8489560662090825</v>
       </c>
       <c r="R19">
-        <v>23.85938355811595</v>
+        <v>23.85938355811596</v>
       </c>
       <c r="S19">
-        <v>2.33720568994589</v>
+        <v>2.337205689945889</v>
       </c>
       <c r="T19">
-        <v>3.12996112462127</v>
+        <v>2.024083010615063</v>
       </c>
       <c r="U19">
-        <v>1.141020584226134</v>
+        <v>0.7051167637339374</v>
       </c>
       <c r="V19">
-        <v>14.76749153941278</v>
+        <v>14.01908100165549</v>
       </c>
       <c r="W19">
-        <v>94.60675809301161</v>
+        <v>81.40259745225667</v>
       </c>
       <c r="X19">
         <v>126.4126974820016</v>
@@ -2059,7 +2059,7 @@
         <v>61.06722274649519</v>
       </c>
       <c r="Z19">
-        <v>1.549223197618584</v>
+        <v>1.332999828568896</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2082,13 +2082,13 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>69.68409828136649</v>
+        <v>74.25660236383796</v>
       </c>
       <c r="H20">
-        <v>23.83350128225495</v>
+        <v>33.05896254593536</v>
       </c>
       <c r="I20">
-        <v>45.85059699911153</v>
+        <v>41.1976398179026</v>
       </c>
       <c r="J20">
         <v>0.1</v>
@@ -2103,7 +2103,7 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.802805094689664</v>
+        <v>0.7213357578668572</v>
       </c>
       <c r="O20">
         <v>73.74708463600315</v>
@@ -2121,16 +2121,16 @@
         <v>4.43348876478334</v>
       </c>
       <c r="T20">
-        <v>2.923787716127518</v>
+        <v>2.24618671141475</v>
       </c>
       <c r="U20">
-        <v>1.072879938748403</v>
+        <v>0.8092339834998938</v>
       </c>
       <c r="V20">
-        <v>20.28011160324585</v>
+        <v>14.44520386648153</v>
       </c>
       <c r="W20">
-        <v>58.34645695030153</v>
+        <v>62.99941413151046</v>
       </c>
       <c r="X20">
         <v>104.1970539494131</v>
@@ -2139,7 +2139,7 @@
         <v>47.0840668714776</v>
       </c>
       <c r="Z20">
-        <v>1.239197478619809</v>
+        <v>1.338019808345697</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2162,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>70.50548952000072</v>
+        <v>56.81978237488929</v>
       </c>
       <c r="H21">
-        <v>27.16911367443604</v>
+        <v>21.31511957118458</v>
       </c>
       <c r="I21">
-        <v>43.33637584556469</v>
+        <v>35.5046628037047</v>
       </c>
       <c r="J21">
         <v>0.1</v>
@@ -2183,10 +2183,10 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>0.8735228847888473</v>
+        <v>0.7156605708393955</v>
       </c>
       <c r="O21">
-        <v>61.98964514603784</v>
+        <v>61.98964514603786</v>
       </c>
       <c r="P21">
         <v>12.3786085032598</v>
@@ -2195,22 +2195,22 @@
         <v>1.610997495151303</v>
       </c>
       <c r="R21">
-        <v>29.66912935056789</v>
+        <v>29.6691293505679</v>
       </c>
       <c r="S21">
-        <v>5.007803997494015</v>
+        <v>5.007803997494016</v>
       </c>
       <c r="T21">
-        <v>2.595060345540118</v>
+        <v>2.665703196509516</v>
       </c>
       <c r="U21">
-        <v>0.9536097708908673</v>
+        <v>0.9804678864177513</v>
       </c>
       <c r="V21">
-        <v>17.42764357917781</v>
+        <v>14.60587256900371</v>
       </c>
       <c r="W21">
-        <v>33.47176306425575</v>
+        <v>41.30347610611574</v>
       </c>
       <c r="X21">
         <v>76.80813890982044</v>
@@ -2219,7 +2219,7 @@
         <v>27.1971022670424</v>
       </c>
       <c r="Z21">
-        <v>1.230710637317308</v>
+        <v>1.518671941612233</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>45.44041612410429</v>
+        <v>49.58141481739362</v>
       </c>
       <c r="H22">
-        <v>18.33888831687664</v>
+        <v>9.454584651462969</v>
       </c>
       <c r="I22">
-        <v>27.10152780722764</v>
+        <v>40.12683016593066</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -2263,7 +2263,7 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.6753966783610524</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>49.58141481739362</v>
@@ -2281,16 +2281,16 @@
         <v>5.244166364275089</v>
       </c>
       <c r="T22">
-        <v>2.47781737578319</v>
+        <v>5.244166364275089</v>
       </c>
       <c r="U22">
-        <v>0.9073780822599443</v>
+        <v>1.657116290088375</v>
       </c>
       <c r="V22">
-        <v>10.46122249548081</v>
+        <v>24.45948392397185</v>
       </c>
       <c r="W22">
-        <v>57.08691829439198</v>
+        <v>44.06161593568896</v>
       </c>
       <c r="X22">
         <v>84.18844610161962</v>
@@ -2299,7 +2299,7 @@
         <v>44.06161593568896</v>
       </c>
       <c r="Z22">
-        <v>1.295615630114755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2322,13 +2322,13 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>41.06925594853345</v>
+        <v>52.24195983499406</v>
       </c>
       <c r="H23">
-        <v>7.229893959760266</v>
+        <v>21.89059845404072</v>
       </c>
       <c r="I23">
-        <v>33.83936198877318</v>
+        <v>30.35136138095334</v>
       </c>
       <c r="J23">
         <v>0.1</v>
@@ -2343,7 +2343,7 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.7823436452880299</v>
+        <v>0.701703380521987</v>
       </c>
       <c r="O23">
         <v>55.05288570134961</v>
@@ -2361,16 +2361,16 @@
         <v>4.665873669199524</v>
       </c>
       <c r="T23">
-        <v>5.680478327498907</v>
+        <v>2.386502129883565</v>
       </c>
       <c r="U23">
-        <v>1.737035441775215</v>
+        <v>0.8698287499350543</v>
       </c>
       <c r="V23">
-        <v>21.28077994039305</v>
+        <v>11.31028949234486</v>
       </c>
       <c r="W23">
-        <v>65.77817119462843</v>
+        <v>69.26617180244827</v>
       </c>
       <c r="X23">
         <v>99.6175331834016</v>
@@ -2379,7 +2379,7 @@
         <v>56.36369940768942</v>
       </c>
       <c r="Z23">
-        <v>1.167030764230756</v>
+        <v>1.228914576763899</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2402,13 +2402,13 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>30.63150889529893</v>
+        <v>26.73159055060876</v>
       </c>
       <c r="H24">
-        <v>6.234425587983881</v>
+        <v>6.431791846093157</v>
       </c>
       <c r="I24">
-        <v>24.39708330731505</v>
+        <v>20.29979870451561</v>
       </c>
       <c r="J24">
         <v>0.1</v>
@@ -2423,10 +2423,10 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.4709580764701234</v>
+        <v>0.3918646352182134</v>
       </c>
       <c r="O24">
-        <v>55.74131436014311</v>
+        <v>55.7413143601431</v>
       </c>
       <c r="P24">
         <v>3.938225027492602</v>
@@ -2435,22 +2435,22 @@
         <v>2.649991480804569</v>
       </c>
       <c r="R24">
-        <v>41.36682656030377</v>
+        <v>41.36682656030376</v>
       </c>
       <c r="S24">
         <v>14.15391806486807</v>
       </c>
       <c r="T24">
-        <v>4.913284866906992</v>
+        <v>4.15616537199447</v>
       </c>
       <c r="U24">
-        <v>1.591942733778552</v>
+        <v>1.424592863589336</v>
       </c>
       <c r="V24">
-        <v>14.47223479324103</v>
+        <v>11.13711394047922</v>
       </c>
       <c r="W24">
-        <v>76.11447764361873</v>
+        <v>80.21176224641817</v>
       </c>
       <c r="X24">
         <v>100.5115609509338</v>
@@ -2459,7 +2459,7 @@
         <v>48.70847161828328</v>
       </c>
       <c r="Z24">
-        <v>1.562653787212003</v>
+        <v>1.646772308419338</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2485,10 +2485,10 @@
         <v>30.71152928918067</v>
       </c>
       <c r="H25">
-        <v>6.442568677263289</v>
+        <v>5.671025281957111</v>
       </c>
       <c r="I25">
-        <v>24.26896061191738</v>
+        <v>25.04050400722356</v>
       </c>
       <c r="J25">
         <v>0.1</v>
@@ -2503,7 +2503,7 @@
         <v>0.1</v>
       </c>
       <c r="N25">
-        <v>0.6884015411139557</v>
+        <v>0.7102867660668633</v>
       </c>
       <c r="O25">
         <v>43.9897010807732</v>
@@ -2521,16 +2521,16 @@
         <v>5.035667548589696</v>
       </c>
       <c r="T25">
-        <v>4.76696964016323</v>
+        <v>5.41551620072868</v>
       </c>
       <c r="U25">
-        <v>1.56171080745125</v>
+        <v>1.68926820383727</v>
       </c>
       <c r="V25">
-        <v>14.2075314808884</v>
+        <v>15.46062131525612</v>
       </c>
       <c r="W25">
-        <v>41.05924084783486</v>
+        <v>40.28769745252868</v>
       </c>
       <c r="X25">
         <v>65.32820145975224</v>
@@ -2539,7 +2539,7 @@
         <v>30.07412493248894</v>
       </c>
       <c r="Z25">
-        <v>1.365268014946588</v>
+        <v>1.339613290260893</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2562,13 +2562,13 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>39.83515959289441</v>
+        <v>40.47728547367318</v>
       </c>
       <c r="H26">
-        <v>13.36708242070459</v>
+        <v>11.79031885850909</v>
       </c>
       <c r="I26">
-        <v>26.46807717218982</v>
+        <v>28.68696661516409</v>
       </c>
       <c r="J26">
         <v>0.1</v>
@@ -2583,7 +2583,7 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>0.8159689960599232</v>
+        <v>0.8843738514399745</v>
       </c>
       <c r="O26">
         <v>47.92694522333416</v>
@@ -2601,16 +2601,16 @@
         <v>3.094188252084928</v>
       </c>
       <c r="T26">
-        <v>2.980093810986965</v>
+        <v>3.433095063791312</v>
       </c>
       <c r="U26">
-        <v>1.09195478021879</v>
+        <v>1.233462205263531</v>
       </c>
       <c r="V26">
-        <v>11.87182762532288</v>
+        <v>14.14405391518726</v>
       </c>
       <c r="W26">
-        <v>45.40881296371781</v>
+        <v>43.18992352074354</v>
       </c>
       <c r="X26">
         <v>71.87689013590763</v>
@@ -2619,7 +2619,7 @@
         <v>39.43928858487266</v>
       </c>
       <c r="Z26">
-        <v>1.15135983921208</v>
+        <v>1.095098950068523</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2642,13 +2642,13 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>31.54961613374186</v>
+        <v>34.94752507857073</v>
       </c>
       <c r="H27">
-        <v>12.22484097291296</v>
+        <v>7.489588285180728</v>
       </c>
       <c r="I27">
-        <v>19.32477516082891</v>
+        <v>27.45793679339</v>
       </c>
       <c r="J27">
         <v>0.1</v>
@@ -2663,10 +2663,10 @@
         <v>0.1</v>
       </c>
       <c r="N27">
-        <v>0.4071911786067864</v>
+        <v>0.5785645396627498</v>
       </c>
       <c r="O27">
-        <v>68.66605101076185</v>
+        <v>68.66605101076186</v>
       </c>
       <c r="P27">
         <v>21.2073235723408</v>
@@ -2675,22 +2675,22 @@
         <v>1.17490834066975</v>
       </c>
       <c r="R27">
-        <v>22.54206608999564</v>
+        <v>22.54206608999565</v>
       </c>
       <c r="S27">
-        <v>3.23784615142658</v>
+        <v>3.237846151426581</v>
       </c>
       <c r="T27">
-        <v>2.580779267693342</v>
+        <v>4.666147690350301</v>
       </c>
       <c r="U27">
-        <v>0.9480913950697075</v>
+        <v>1.540333825552296</v>
       </c>
       <c r="V27">
-        <v>7.73450862831454</v>
+        <v>15.9214706182659</v>
       </c>
       <c r="W27">
-        <v>100.0051731128946</v>
+        <v>91.87201148033347</v>
       </c>
       <c r="X27">
         <v>119.3299482737235</v>
@@ -2699,7 +2699,7 @@
         <v>71.8712208353024</v>
       </c>
       <c r="Z27">
-        <v>1.391449483543113</v>
+        <v>1.278286502059902</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2722,13 +2722,13 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>56.51936401483501</v>
+        <v>60.37943587519274</v>
       </c>
       <c r="H28">
-        <v>6.089327276024891</v>
+        <v>4.427691228189447</v>
       </c>
       <c r="I28">
-        <v>50.43003673881012</v>
+        <v>55.9517446470033</v>
       </c>
       <c r="J28">
         <v>0.1</v>
@@ -2743,10 +2743,10 @@
         <v>0.1</v>
       </c>
       <c r="N28">
-        <v>0.8864413363588368</v>
+        <v>0.9834999635907116</v>
       </c>
       <c r="O28">
-        <v>70.77689545693585</v>
+        <v>70.77689545693586</v>
       </c>
       <c r="P28">
         <v>13.88645649573229</v>
@@ -2755,22 +2755,22 @@
         <v>1.628618599765338</v>
       </c>
       <c r="R28">
-        <v>34.27469762742174</v>
+        <v>34.27469762742176</v>
       </c>
       <c r="S28">
-        <v>5.096829092338108</v>
+        <v>5.096829092338109</v>
       </c>
       <c r="T28">
-        <v>9.281709038265195</v>
+        <v>13.63677654186443</v>
       </c>
       <c r="U28">
-        <v>2.228045693448237</v>
+        <v>2.612770300576188</v>
       </c>
       <c r="V28">
-        <v>36.86273732546597</v>
+        <v>44.38320450586821</v>
       </c>
       <c r="W28">
-        <v>64.67598748092794</v>
+        <v>59.15427957273477</v>
       </c>
       <c r="X28">
         <v>115.1060242197381</v>
@@ -2779,7 +2779,7 @@
         <v>58.2155852585345</v>
       </c>
       <c r="Z28">
-        <v>1.110973757176929</v>
+        <v>1.016124450351766</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2802,13 +2802,13 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>46.58344387595858</v>
+        <v>52.34999579645174</v>
       </c>
       <c r="H29">
-        <v>16.24038719754803</v>
+        <v>21.86545532268742</v>
       </c>
       <c r="I29">
-        <v>30.34305667841055</v>
+        <v>30.48454047376432</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -2823,7 +2823,7 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>0.6531550482266847</v>
+        <v>0.6562005836899374</v>
       </c>
       <c r="O29">
         <v>63.93058884285929</v>
@@ -2841,16 +2841,16 @@
         <v>3.658516361893684</v>
       </c>
       <c r="T29">
-        <v>2.86837027401611</v>
+        <v>2.394187316197061</v>
       </c>
       <c r="U29">
-        <v>1.053744019709479</v>
+        <v>0.8730438481003834</v>
       </c>
       <c r="V29">
-        <v>13.22984579122793</v>
+        <v>11.39503921837829</v>
       </c>
       <c r="W29">
-        <v>90.19721097484774</v>
+        <v>90.05572717949397</v>
       </c>
       <c r="X29">
         <v>120.5402676532583</v>
@@ -2859,7 +2859,7 @@
         <v>74.08413635519679</v>
       </c>
       <c r="Z29">
-        <v>1.217496962404971</v>
+        <v>1.215587190592616</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2885,10 +2885,10 @@
         <v>62.14290891516765</v>
       </c>
       <c r="H30">
-        <v>21.82400166519662</v>
+        <v>20.85745052323869</v>
       </c>
       <c r="I30">
-        <v>40.31890724997102</v>
+        <v>41.28545839192896</v>
       </c>
       <c r="J30">
         <v>0.1</v>
@@ -2903,7 +2903,7 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>0.7062770981402782</v>
+        <v>0.7232084333948245</v>
       </c>
       <c r="O30">
         <v>68.54345644236176</v>
@@ -2921,16 +2921,16 @@
         <v>5.982707846629371</v>
       </c>
       <c r="T30">
-        <v>2.847457119391114</v>
+        <v>2.97941058740281</v>
       </c>
       <c r="U30">
-        <v>1.04642635718845</v>
+        <v>1.091725491492254</v>
       </c>
       <c r="V30">
-        <v>17.48169668818464</v>
+        <v>18.51484796817083</v>
       </c>
       <c r="W30">
-        <v>68.12494359899411</v>
+        <v>67.15839245703617</v>
       </c>
       <c r="X30">
         <v>108.4438508489651</v>
@@ -2939,7 +2939,7 @@
         <v>51.35732297465619</v>
       </c>
       <c r="Z30">
-        <v>1.3264893817112</v>
+        <v>1.307669258582218</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2962,13 +2962,13 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>46.73357534032468</v>
+        <v>49.03258751937141</v>
       </c>
       <c r="H31">
-        <v>13.49249955551823</v>
+        <v>11.03110799142084</v>
       </c>
       <c r="I31">
-        <v>33.24107578480644</v>
+        <v>38.00147952795057</v>
       </c>
       <c r="J31">
         <v>0.1</v>
@@ -2983,7 +2983,7 @@
         <v>0.1</v>
       </c>
       <c r="N31">
-        <v>0.6581342521569281</v>
+        <v>0.7523846542119423</v>
       </c>
       <c r="O31">
         <v>64.22300364073698</v>
@@ -3001,16 +3001,16 @@
         <v>4.682698286262748</v>
       </c>
       <c r="T31">
-        <v>3.463670697043776</v>
+        <v>4.444937676025404</v>
       </c>
       <c r="U31">
-        <v>1.24232892181748</v>
+        <v>1.491765847725929</v>
       </c>
       <c r="V31">
-        <v>16.47895335937665</v>
+        <v>21.54564936377239</v>
       </c>
       <c r="W31">
-        <v>63.23379206505017</v>
+        <v>58.47338832190604</v>
       </c>
       <c r="X31">
         <v>96.47486784985661</v>
@@ -3019,7 +3019,7 @@
         <v>45.96682078215847</v>
       </c>
       <c r="Z31">
-        <v>1.375639885227688</v>
+        <v>1.272078149563954</v>
       </c>
     </row>
   </sheetData>

--- a/results/DeterministicUSM/dataset_05/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_05/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>78.93827369624272</v>
+        <v>107.5423457079566</v>
       </c>
       <c r="H2">
-        <v>29.83441121105321</v>
+        <v>27.01514007147877</v>
       </c>
       <c r="I2">
-        <v>49.10386248518951</v>
+        <v>80.52720563647783</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>68.08232425373885</v>
+        <v>91.2653446451711</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.7212424520376578</v>
+        <v>0.882341549791524</v>
       </c>
       <c r="O2">
-        <v>76.07776529414922</v>
+        <v>107.5423457079566</v>
       </c>
       <c r="P2">
-        <v>7.995441040410377</v>
+        <v>16.27700106278549</v>
       </c>
       <c r="Q2">
-        <v>2.252884535406904</v>
+        <v>1.88813154986347</v>
       </c>
       <c r="R2">
-        <v>50.06951878004062</v>
+        <v>60.53222540136457</v>
       </c>
       <c r="S2">
-        <v>9.515143055853793</v>
+        <v>6.607012267992861</v>
       </c>
       <c r="T2">
-        <v>2.645880059030535</v>
+        <v>3.9808176238736</v>
       </c>
       <c r="U2">
-        <v>0.9730037355007916</v>
+        <v>1.38148723133192</v>
       </c>
       <c r="V2">
-        <v>20.07486893036804</v>
+        <v>43.20613457508662</v>
       </c>
       <c r="W2">
-        <v>104.1193797176702</v>
+        <v>72.69603656638184</v>
       </c>
       <c r="X2">
         <v>153.2232422028597</v>
       </c>
       <c r="Y2">
-        <v>85.14091794912082</v>
+        <v>61.95789755768857</v>
       </c>
       <c r="Z2">
-        <v>1.222906473476016</v>
+        <v>1.173313482735515</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>47.36840927261172</v>
+        <v>60.17749484304089</v>
       </c>
       <c r="H3">
-        <v>21.50949412253058</v>
+        <v>24.26946953038787</v>
       </c>
       <c r="I3">
-        <v>25.85891515008115</v>
+        <v>35.90802531265302</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>46.15047020119367</v>
+        <v>55.1440452704146</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N3">
-        <v>0.5603174796995311</v>
+        <v>0.6511677758961598</v>
       </c>
       <c r="O3">
-        <v>60.17749484304088</v>
+        <v>78.22812085729174</v>
       </c>
       <c r="P3">
-        <v>14.02702464184723</v>
+        <v>23.08407558687713</v>
       </c>
       <c r="Q3">
-        <v>1.456312642122724</v>
+        <v>1.220486173395156</v>
       </c>
       <c r="R3">
-        <v>25.72273688390456</v>
+        <v>26.97025019102241</v>
       </c>
       <c r="S3">
-        <v>4.290111151834126</v>
+        <v>3.388834894552285</v>
       </c>
       <c r="T3">
-        <v>2.202209359400725</v>
+        <v>2.479555425292361</v>
       </c>
       <c r="U3">
-        <v>0.7894611107113562</v>
+        <v>0.9080792801121648</v>
       </c>
       <c r="V3">
-        <v>8.878006029268768</v>
+        <v>13.86942289279429</v>
       </c>
       <c r="W3">
-        <v>73.32590090356534</v>
+        <v>63.27679074099346</v>
       </c>
       <c r="X3">
         <v>99.18481605364649</v>
       </c>
       <c r="Y3">
-        <v>53.03434585245282</v>
+        <v>44.04077078323188</v>
       </c>
       <c r="Z3">
-        <v>1.382611583587092</v>
+        <v>1.436777549885333</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -814,31 +814,31 @@
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>51.34228018153539</v>
+        <v>55.91671458203045</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.9181920033269424</v>
       </c>
       <c r="O4">
-        <v>64.95091210640841</v>
+        <v>76.19036493014276</v>
       </c>
       <c r="P4">
-        <v>13.60863192487301</v>
+        <v>20.27365034811231</v>
       </c>
       <c r="Q4">
-        <v>1.562927494463523</v>
+        <v>1.323912979719822</v>
       </c>
       <c r="R4">
-        <v>30.0729751841173</v>
+        <v>29.07616573986329</v>
       </c>
       <c r="S4">
-        <v>4.772773079981328</v>
+        <v>3.758098005139805</v>
       </c>
       <c r="T4">
         <v>4.772773079981328</v>
@@ -856,10 +856,10 @@
         <v>110.100827401152</v>
       </c>
       <c r="Y4">
-        <v>58.75854721961661</v>
+        <v>54.18411281912155</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>1.084423905135543</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>49.08745535237672</v>
+        <v>77.52314209674275</v>
       </c>
       <c r="H5">
-        <v>16.75804554043501</v>
+        <v>17.47798648302588</v>
       </c>
       <c r="I5">
-        <v>32.32940981194172</v>
+        <v>60.04515561371686</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>49.78704897452391</v>
+        <v>60.40475667865213</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N5">
-        <v>0.6493538074225831</v>
+        <v>0.9940468088159296</v>
       </c>
       <c r="O5">
-        <v>64.41199154088162</v>
+        <v>77.52314209674276</v>
       </c>
       <c r="P5">
-        <v>14.62494256635771</v>
+        <v>17.11838541809062</v>
       </c>
       <c r="Q5">
-        <v>1.482571353803885</v>
+        <v>1.510423442909613</v>
       </c>
       <c r="R5">
-        <v>28.10452807461489</v>
+        <v>34.54874603840599</v>
       </c>
       <c r="S5">
-        <v>4.404256033733143</v>
+        <v>4.528648012260356</v>
       </c>
       <c r="T5">
-        <v>2.929187370563889</v>
+        <v>4.435473283609126</v>
       </c>
       <c r="U5">
-        <v>1.074725036630513</v>
+        <v>1.489634325650507</v>
       </c>
       <c r="V5">
-        <v>14.31911870464191</v>
+        <v>34.00934700534593</v>
       </c>
       <c r="W5">
-        <v>57.21157167630119</v>
+        <v>29.49582587452605</v>
       </c>
       <c r="X5">
         <v>89.54098148824291</v>
       </c>
       <c r="Y5">
-        <v>39.75393251371899</v>
+        <v>29.13622480959078</v>
       </c>
       <c r="Z5">
-        <v>1.439142446009778</v>
+        <v>1.0123420610352</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>51.30774626518667</v>
+        <v>71.02173407648607</v>
       </c>
       <c r="H6">
-        <v>21.77018531770416</v>
+        <v>26.15184567508168</v>
       </c>
       <c r="I6">
-        <v>29.53756094748251</v>
+        <v>44.8698884014044</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>43.06766878017414</v>
+        <v>53.20636806835832</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.6858407195952035</v>
+        <v>0.8433180092983718</v>
       </c>
       <c r="O6">
-        <v>57.12135520516112</v>
+        <v>73.50102720690728</v>
       </c>
       <c r="P6">
-        <v>14.05368642498697</v>
+        <v>20.29465913854897</v>
       </c>
       <c r="Q6">
-        <v>1.402293302963398</v>
+        <v>1.286941626916764</v>
       </c>
       <c r="R6">
-        <v>23.36027842446729</v>
+        <v>27.08832641887293</v>
       </c>
       <c r="S6">
-        <v>4.064510440733992</v>
+        <v>3.621693111725869</v>
       </c>
       <c r="T6">
-        <v>2.356789596249403</v>
+        <v>2.715744615461611</v>
       </c>
       <c r="U6">
-        <v>0.8573003523620232</v>
+        <v>0.9990661756220749</v>
       </c>
       <c r="V6">
-        <v>10.8739734036282</v>
+        <v>18.74246395734184</v>
       </c>
       <c r="W6">
-        <v>63.05190022478391</v>
+        <v>47.71957277086203</v>
       </c>
       <c r="X6">
         <v>92.58946117226643</v>
       </c>
       <c r="Y6">
-        <v>49.52179239209229</v>
+        <v>39.3830931039081</v>
       </c>
       <c r="Z6">
-        <v>1.273215228672784</v>
+        <v>1.211676610695839</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>41.13669398925849</v>
+        <v>68.47764992075889</v>
       </c>
       <c r="H7">
-        <v>12.12579010898213</v>
+        <v>27.70303129889798</v>
       </c>
       <c r="I7">
-        <v>29.01090388027636</v>
+        <v>40.77461862186091</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>56.99430282128545</v>
+        <v>61.39391907088702</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N7">
-        <v>0.5090141021856971</v>
+        <v>0.6641475123095085</v>
       </c>
       <c r="O7">
-        <v>62.09671927395502</v>
+        <v>73.50981076706131</v>
       </c>
       <c r="P7">
-        <v>5.102416452669566</v>
+        <v>12.11589169617428</v>
       </c>
       <c r="Q7">
-        <v>2.498978916052234</v>
+        <v>1.802900922919429</v>
       </c>
       <c r="R7">
-        <v>44.24347168514618</v>
+        <v>39.55016674986257</v>
       </c>
       <c r="S7">
-        <v>12.17006096032523</v>
+        <v>6.067222504990928</v>
       </c>
       <c r="T7">
-        <v>3.392495962699094</v>
+        <v>2.471846823617562</v>
       </c>
       <c r="U7">
-        <v>1.221565922659589</v>
+        <v>0.9049655731195596</v>
       </c>
       <c r="V7">
-        <v>14.19845189782108</v>
+        <v>15.7043290253046</v>
       </c>
       <c r="W7">
-        <v>57.96515977240651</v>
+        <v>46.20144503082196</v>
       </c>
       <c r="X7">
         <v>86.97606365268287</v>
       </c>
       <c r="Y7">
-        <v>29.98176083139742</v>
+        <v>25.58214458179584</v>
       </c>
       <c r="Z7">
-        <v>1.933347414061965</v>
+        <v>1.806003592978625</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>50.25781024410774</v>
+        <v>69.89140653859761</v>
       </c>
       <c r="H8">
-        <v>15.91145801681347</v>
+        <v>21.79792947413195</v>
       </c>
       <c r="I8">
-        <v>34.34635222729428</v>
+        <v>48.09347706446566</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>55.00559936906357</v>
+        <v>56.10084448358667</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N8">
-        <v>0.6244155617111857</v>
+        <v>0.8572683264783347</v>
       </c>
       <c r="O8">
-        <v>62.13379920424181</v>
+        <v>66.86999797014144</v>
       </c>
       <c r="P8">
-        <v>7.128199835178229</v>
+        <v>10.76915348655477</v>
       </c>
       <c r="Q8">
-        <v>2.165231386463843</v>
+        <v>1.826064516837059</v>
       </c>
       <c r="R8">
-        <v>39.57139735694929</v>
+        <v>36.4356754254169</v>
       </c>
       <c r="S8">
-        <v>8.71661859107914</v>
+        <v>6.209401514578491</v>
       </c>
       <c r="T8">
-        <v>3.158592392413119</v>
+        <v>3.206332354710074</v>
       </c>
       <c r="U8">
-        <v>1.150126482919643</v>
+        <v>1.165127715286626</v>
       </c>
       <c r="V8">
-        <v>16.04616298029305</v>
+        <v>22.69610529829129</v>
       </c>
       <c r="W8">
-        <v>56.91370032764708</v>
+        <v>43.16657549047569</v>
       </c>
       <c r="X8">
         <v>91.26005255494135</v>
       </c>
       <c r="Y8">
-        <v>36.25445318587778</v>
+        <v>35.15920807135468</v>
       </c>
       <c r="Z8">
-        <v>1.569840263093989</v>
+        <v>1.227745954996207</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>49.86658349281902</v>
+        <v>73.45652613579065</v>
       </c>
       <c r="H9">
-        <v>16.6667968969282</v>
+        <v>25.47658474569258</v>
       </c>
       <c r="I9">
-        <v>33.19978659589081</v>
+        <v>47.97994139009807</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>61.21467755152834</v>
+        <v>62.57580803637738</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N9">
-        <v>0.5423501017046837</v>
+        <v>0.7667490504030846</v>
       </c>
       <c r="O9">
-        <v>73.45652613579065</v>
+        <v>80.69962474405794</v>
       </c>
       <c r="P9">
-        <v>12.24184858426232</v>
+        <v>18.12381670768057</v>
       </c>
       <c r="Q9">
-        <v>1.791833456272518</v>
+        <v>1.49350701173733</v>
       </c>
       <c r="R9">
-        <v>39.27932369162473</v>
+        <v>35.50776070401427</v>
       </c>
       <c r="S9">
-        <v>6.000443938689431</v>
+        <v>4.452683783204384</v>
       </c>
       <c r="T9">
-        <v>2.991971630854261</v>
+        <v>2.883295656346175</v>
       </c>
       <c r="U9">
-        <v>1.095932578400923</v>
+        <v>1.058933965027126</v>
       </c>
       <c r="V9">
-        <v>14.93410089895578</v>
+        <v>21.00192048999223</v>
       </c>
       <c r="W9">
-        <v>72.71598606865336</v>
+        <v>57.93583127444611</v>
       </c>
       <c r="X9">
         <v>105.9157726645442</v>
       </c>
       <c r="Y9">
-        <v>44.70109511301584</v>
+        <v>43.3399646281668</v>
       </c>
       <c r="Z9">
-        <v>1.626715987266278</v>
+        <v>1.336776155022365</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>75.83927012742051</v>
+        <v>94.83138407473633</v>
       </c>
       <c r="H10">
-        <v>24.4574012946737</v>
+        <v>32.24611453014379</v>
       </c>
       <c r="I10">
-        <v>51.3818688327468</v>
+        <v>62.58526954459255</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K10">
-        <v>58.38361853582209</v>
+        <v>82.90399683742891</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.8800733856744548</v>
+        <v>0.7549125727595439</v>
       </c>
       <c r="O10">
-        <v>68.55325028934591</v>
+        <v>100.7681905072262</v>
       </c>
       <c r="P10">
-        <v>10.16963175352383</v>
+        <v>17.86419366979728</v>
       </c>
       <c r="Q10">
-        <v>1.908204819442514</v>
+        <v>1.730024379644982</v>
       </c>
       <c r="R10">
-        <v>38.97787821179229</v>
+        <v>51.99850626598004</v>
       </c>
       <c r="S10">
-        <v>6.740976659807948</v>
+        <v>5.6407914272444</v>
       </c>
       <c r="T10">
-        <v>3.100871969743436</v>
+        <v>2.940862347495777</v>
       </c>
       <c r="U10">
-        <v>1.131683352501538</v>
+        <v>1.07870285381677</v>
       </c>
       <c r="V10">
-        <v>23.70383494211501</v>
+        <v>27.80129377642402</v>
       </c>
       <c r="W10">
-        <v>68.26904711751101</v>
+        <v>57.06564640566526</v>
       </c>
       <c r="X10">
         <v>119.6509159502578</v>
       </c>
       <c r="Y10">
-        <v>61.26729741443572</v>
+        <v>36.74691911282891</v>
       </c>
       <c r="Z10">
-        <v>1.114282006854533</v>
+        <v>1.552936893306595</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>71.3313614923738</v>
+        <v>77.80095172340448</v>
       </c>
       <c r="H11">
-        <v>14.44296840617977</v>
+        <v>14.9742370992753</v>
       </c>
       <c r="I11">
-        <v>56.88839308619404</v>
+        <v>62.82671462412918</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K11">
-        <v>60.68758405880132</v>
+        <v>62.82671462412919</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N11">
-        <v>0.9373975578113939</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O11">
-        <v>77.80095172340448</v>
+        <v>77.80095172340449</v>
       </c>
       <c r="P11">
-        <v>17.11336766460317</v>
+        <v>14.97423709927529</v>
       </c>
       <c r="Q11">
-        <v>1.514293771172917</v>
+        <v>1.647822466310968</v>
       </c>
       <c r="R11">
-        <v>34.77291800050072</v>
+        <v>38.15183031607619</v>
       </c>
       <c r="S11">
-        <v>4.546209328765015</v>
+        <v>5.195653789078164</v>
       </c>
       <c r="T11">
-        <v>4.93882971189309</v>
+        <v>5.195653789078162</v>
       </c>
       <c r="U11">
-        <v>1.597128402707992</v>
+        <v>1.647822466310968</v>
       </c>
       <c r="V11">
-        <v>33.82111802527015</v>
+        <v>38.15183031607617</v>
       </c>
       <c r="W11">
-        <v>55.23816290210319</v>
+        <v>49.29984136416805</v>
       </c>
       <c r="X11">
         <v>112.1265559882972</v>
       </c>
       <c r="Y11">
-        <v>51.43897192949591</v>
+        <v>49.29984136416804</v>
       </c>
       <c r="Z11">
-        <v>1.073858221307661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1442,64 +1442,64 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>85.95851313091157</v>
+        <v>71.16708459235886</v>
       </c>
       <c r="H12">
-        <v>30.91528806495583</v>
+        <v>27.9525568741804</v>
       </c>
       <c r="I12">
-        <v>55.04322506595574</v>
+        <v>43.21452771817847</v>
       </c>
       <c r="J12">
         <v>0.1</v>
       </c>
       <c r="K12">
-        <v>60.15276209380947</v>
+        <v>67.4126210843187</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N12">
-        <v>0.9150573165720087</v>
+        <v>0.6410450598579512</v>
       </c>
       <c r="O12">
-        <v>85.95851313091157</v>
+        <v>90.42281685707903</v>
       </c>
       <c r="P12">
-        <v>25.8057510371021</v>
+        <v>23.01019577276032</v>
       </c>
       <c r="Q12">
-        <v>1.203267398902053</v>
+        <v>1.368559222241366</v>
       </c>
       <c r="R12">
-        <v>29.10154316668167</v>
+        <v>35.92180545392829</v>
       </c>
       <c r="S12">
-        <v>3.33098281105344</v>
+        <v>3.929684812335339</v>
       </c>
       <c r="T12">
-        <v>2.780453248577368</v>
+        <v>2.545995520649328</v>
       </c>
       <c r="U12">
-        <v>1.02261395346973</v>
+        <v>0.9345217407657676</v>
       </c>
       <c r="V12">
-        <v>23.42882011519569</v>
+        <v>17.09225560926528</v>
       </c>
       <c r="W12">
-        <v>42.04860126641373</v>
+        <v>53.877298614191</v>
       </c>
       <c r="X12">
         <v>97.09182633236946</v>
       </c>
       <c r="Y12">
-        <v>36.93906423855999</v>
+        <v>29.67920524805076</v>
       </c>
       <c r="Z12">
-        <v>1.138323401883039</v>
+        <v>1.815321473870312</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>71.05030816066282</v>
+        <v>112.079179469825</v>
       </c>
       <c r="H13">
-        <v>23.44901496001456</v>
+        <v>24.25081819934265</v>
       </c>
       <c r="I13">
-        <v>47.60129320064826</v>
+        <v>87.82836127048235</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
-        <v>95.19240218258335</v>
+        <v>103.2663098621365</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N13">
-        <v>0.5000534928128699</v>
+        <v>0.8505035319625129</v>
       </c>
       <c r="O13">
-        <v>116.0679517772487</v>
+        <v>127.4745501736674</v>
       </c>
       <c r="P13">
-        <v>20.8755495946653</v>
+        <v>24.20824031153096</v>
       </c>
       <c r="Q13">
-        <v>1.715597212502359</v>
+        <v>1.661223654249771</v>
       </c>
       <c r="R13">
-        <v>59.37836748852082</v>
+        <v>63.05100842885837</v>
       </c>
       <c r="S13">
-        <v>5.559995019575894</v>
+        <v>5.26575036158032</v>
       </c>
       <c r="T13">
-        <v>3.029991165164863</v>
+        <v>4.621665897972179</v>
       </c>
       <c r="U13">
-        <v>1.108559703729853</v>
+        <v>1.530755224075531</v>
       </c>
       <c r="V13">
-        <v>21.60666012381763</v>
+        <v>50.70629462373262</v>
       </c>
       <c r="W13">
-        <v>79.87325697301915</v>
+        <v>39.64618890318508</v>
       </c>
       <c r="X13">
         <v>127.4745501736674</v>
       </c>
       <c r="Y13">
-        <v>32.28214799108407</v>
+        <v>24.20824031153096</v>
       </c>
       <c r="Z13">
-        <v>2.474223741093038</v>
+        <v>1.637714612585891</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,19 +1599,19 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>53.39723776380144</v>
+        <v>76.79470334599723</v>
       </c>
       <c r="H14">
-        <v>19.49818629045683</v>
+        <v>30.98651340334941</v>
       </c>
       <c r="I14">
-        <v>33.89905147334461</v>
+        <v>45.80818994264783</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K14">
         <v>61.31606677173951</v>
@@ -1623,7 +1623,7 @@
         <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.5528575666723724</v>
+        <v>0.7470829809285934</v>
       </c>
       <c r="O14">
         <v>75.18083703950195</v>
@@ -1641,16 +1641,16 @@
         <v>5.422436548718595</v>
       </c>
       <c r="T14">
-        <v>2.73857460218934</v>
+        <v>2.478326694790267</v>
       </c>
       <c r="U14">
-        <v>1.007437566860482</v>
+        <v>0.9075836126083835</v>
       </c>
       <c r="V14">
-        <v>14.25584611869438</v>
+        <v>17.68533816589787</v>
       </c>
       <c r="W14">
-        <v>62.159372972814</v>
+        <v>50.25023450351078</v>
       </c>
       <c r="X14">
         <v>96.05842444615861</v>
@@ -1659,7 +1659,7 @@
         <v>34.7423576744191</v>
       </c>
       <c r="Z14">
-        <v>1.789152410303522</v>
+        <v>1.446368003415905</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>63.97392608566522</v>
+        <v>90.89475555613677</v>
       </c>
       <c r="H15">
-        <v>24.71236392693485</v>
+        <v>38.66058879723091</v>
       </c>
       <c r="I15">
-        <v>39.26156215873037</v>
+        <v>52.23416675890586</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K15">
-        <v>66.09247471856145</v>
+        <v>69.62362596591333</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N15">
-        <v>0.5940398256521046</v>
+        <v>0.7502362313689166</v>
       </c>
       <c r="O15">
-        <v>81.22310343687812</v>
+        <v>92.60956084636231</v>
       </c>
       <c r="P15">
-        <v>15.13062871831667</v>
+        <v>22.98593488044899</v>
       </c>
       <c r="Q15">
-        <v>1.680478650429678</v>
+        <v>1.39350988326985</v>
       </c>
       <c r="R15">
-        <v>40.66577618985212</v>
+        <v>37.59249853381047</v>
       </c>
       <c r="S15">
-        <v>5.368124811532249</v>
+        <v>4.028966467016865</v>
       </c>
       <c r="T15">
-        <v>2.588741662870133</v>
+        <v>2.351095996826804</v>
       </c>
       <c r="U15">
-        <v>0.9511719131991038</v>
+        <v>0.8548816010623859</v>
       </c>
       <c r="V15">
-        <v>15.75585568267523</v>
+        <v>19.18394070991457</v>
       </c>
       <c r="W15">
-        <v>56.7648310472439</v>
+        <v>43.79222644706841</v>
       </c>
       <c r="X15">
         <v>96.02639320597427</v>
       </c>
       <c r="Y15">
-        <v>29.93391848741283</v>
+        <v>26.40276724006094</v>
       </c>
       <c r="Z15">
-        <v>1.896338131311256</v>
+        <v>1.658622600006201</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>67.39081339848271</v>
+        <v>113.7813430023066</v>
       </c>
       <c r="H16">
-        <v>23.65856254566167</v>
+        <v>40.2754250609316</v>
       </c>
       <c r="I16">
-        <v>43.73225085282103</v>
+        <v>73.50591794137502</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K16">
-        <v>73.38264792055443</v>
+        <v>76.88828362937552</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N16">
-        <v>0.5959481170557714</v>
+        <v>0.9560093485204518</v>
       </c>
       <c r="O16">
-        <v>86.75536753741616</v>
+        <v>96.86983536886457</v>
       </c>
       <c r="P16">
-        <v>13.37271961686173</v>
+        <v>19.98155173948905</v>
       </c>
       <c r="Q16">
-        <v>1.869875508232618</v>
+        <v>1.578558739087204</v>
       </c>
       <c r="R16">
-        <v>48.37732703052281</v>
+        <v>45.34623051048196</v>
       </c>
       <c r="S16">
-        <v>6.487488710077034</v>
+        <v>4.847963593208984</v>
       </c>
       <c r="T16">
-        <v>2.848474554124604</v>
+        <v>2.82508112155663</v>
       </c>
       <c r="U16">
-        <v>1.046783606819461</v>
+        <v>1.038537079781387</v>
       </c>
       <c r="V16">
-        <v>18.9668554191095</v>
+        <v>31.67839561164104</v>
       </c>
       <c r="W16">
-        <v>70.0490921494856</v>
+        <v>40.27542506093161</v>
       </c>
       <c r="X16">
         <v>113.7813430023066</v>
       </c>
       <c r="Y16">
-        <v>40.39869508175219</v>
+        <v>36.89305937293111</v>
       </c>
       <c r="Z16">
-        <v>1.733944425871475</v>
+        <v>1.091680271180822</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>53.69785023156294</v>
+        <v>89.52954893654795</v>
       </c>
       <c r="H17">
-        <v>18.45287385855329</v>
+        <v>16.29129280827984</v>
       </c>
       <c r="I17">
-        <v>35.24497637300965</v>
+        <v>73.23825612826812</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K17">
-        <v>71.17198902668747</v>
+        <v>76.67904825873862</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N17">
-        <v>0.4952085343546291</v>
+        <v>0.9551273495354271</v>
       </c>
       <c r="O17">
-        <v>81.10246617235975</v>
+        <v>89.52954893654795</v>
       </c>
       <c r="P17">
-        <v>9.930477145672272</v>
+        <v>12.85050067780935</v>
       </c>
       <c r="Q17">
-        <v>2.100104841862986</v>
+        <v>1.941185952671197</v>
       </c>
       <c r="R17">
-        <v>50.31694589105142</v>
+        <v>51.73383685818339</v>
       </c>
       <c r="S17">
-        <v>8.167026113916835</v>
+        <v>6.96700861555927</v>
       </c>
       <c r="T17">
-        <v>2.909999311932264</v>
+        <v>5.495545994425054</v>
       </c>
       <c r="U17">
-        <v>1.06815284473398</v>
+        <v>1.70393794496228</v>
       </c>
       <c r="V17">
-        <v>15.53448666747867</v>
+        <v>45.47890413974901</v>
       </c>
       <c r="W17">
-        <v>67.86922020468931</v>
+        <v>29.87594044943084</v>
       </c>
       <c r="X17">
         <v>103.114196577699</v>
       </c>
       <c r="Y17">
-        <v>31.94220755101149</v>
+        <v>26.43514831896034</v>
       </c>
       <c r="Z17">
-        <v>2.124750460540419</v>
+        <v>1.130159743722816</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1922,13 +1922,13 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>54.86972831023711</v>
+        <v>77.59900972203434</v>
       </c>
       <c r="H18">
-        <v>23.34726449209479</v>
+        <v>14.32404077928859</v>
       </c>
       <c r="I18">
-        <v>31.52246381814231</v>
+        <v>63.27496894274575</v>
       </c>
       <c r="J18">
         <v>0.1</v>
@@ -1943,7 +1943,7 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.4341332809206648</v>
+        <v>0.8714347338375733</v>
       </c>
       <c r="O18">
         <v>80.71015725556806</v>
@@ -1961,16 +1961,16 @@
         <v>9.964154665239255</v>
       </c>
       <c r="T18">
-        <v>2.350156624508005</v>
+        <v>5.417396593441445</v>
       </c>
       <c r="U18">
-        <v>0.8544819746619505</v>
+        <v>1.689615366741168</v>
       </c>
       <c r="V18">
-        <v>11.57264715198231</v>
+        <v>39.07284952823262</v>
       </c>
       <c r="W18">
-        <v>70.75044137883121</v>
+        <v>38.99793625422777</v>
       </c>
       <c r="X18">
         <v>102.2729051969735</v>
@@ -1979,7 +1979,7 @@
         <v>29.66279856959692</v>
       </c>
       <c r="Z18">
-        <v>2.385157328052902</v>
+        <v>1.314708595776225</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2002,64 +2002,64 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>88.96171290018209</v>
+        <v>114.2126574186363</v>
       </c>
       <c r="H19">
-        <v>43.95161287043712</v>
+        <v>48.86718268312983</v>
       </c>
       <c r="I19">
-        <v>45.01010002974498</v>
+        <v>65.34547473550646</v>
       </c>
       <c r="J19">
         <v>0.1</v>
       </c>
       <c r="K19">
-        <v>65.34547473550646</v>
+        <v>84.88544181159828</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N19">
-        <v>0.6888020970377625</v>
+        <v>0.7698077943746769</v>
       </c>
       <c r="O19">
-        <v>114.2126574186363</v>
+        <v>104.3757205741034</v>
       </c>
       <c r="P19">
-        <v>48.86718268312983</v>
+        <v>19.49027876250511</v>
       </c>
       <c r="Q19">
-        <v>0.8489560662090825</v>
+        <v>1.678081270586113</v>
       </c>
       <c r="R19">
-        <v>23.85938355811596</v>
+        <v>52.17917006173617</v>
       </c>
       <c r="S19">
-        <v>2.337205689945889</v>
+        <v>5.35527079145213</v>
       </c>
       <c r="T19">
-        <v>2.024083010615063</v>
+        <v>2.33720568994589</v>
       </c>
       <c r="U19">
-        <v>0.7051167637339374</v>
+        <v>0.8489560662090826</v>
       </c>
       <c r="V19">
-        <v>14.01908100165549</v>
+        <v>23.85938355811595</v>
       </c>
       <c r="W19">
-        <v>81.40259745225667</v>
+        <v>61.06722274649519</v>
       </c>
       <c r="X19">
         <v>126.4126974820016</v>
       </c>
       <c r="Y19">
-        <v>61.06722274649519</v>
+        <v>41.52725567040336</v>
       </c>
       <c r="Z19">
-        <v>1.332999828568896</v>
+        <v>1.470533551053267</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,19 +2079,19 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>74.25660236383796</v>
+        <v>69.70607269397198</v>
       </c>
       <c r="H20">
-        <v>33.05896254593536</v>
+        <v>28.83560162597871</v>
       </c>
       <c r="I20">
-        <v>41.1976398179026</v>
+        <v>40.87047106799326</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K20">
         <v>57.11298707793546</v>
@@ -2103,7 +2103,7 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.7213357578668572</v>
+        <v>0.7156073103341991</v>
       </c>
       <c r="O20">
         <v>73.74708463600315</v>
@@ -2121,16 +2121,16 @@
         <v>4.43348876478334</v>
       </c>
       <c r="T20">
-        <v>2.24618671141475</v>
+        <v>2.417361482452027</v>
       </c>
       <c r="U20">
-        <v>0.8092339834998938</v>
+        <v>0.8826766488555488</v>
       </c>
       <c r="V20">
-        <v>14.44520386648153</v>
+        <v>15.41795885704076</v>
       </c>
       <c r="W20">
-        <v>62.99941413151046</v>
+        <v>63.3265828814198</v>
       </c>
       <c r="X20">
         <v>104.1970539494131</v>
@@ -2139,7 +2139,7 @@
         <v>47.0840668714776</v>
       </c>
       <c r="Z20">
-        <v>1.338019808345697</v>
+        <v>1.344968416901589</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,19 +2159,19 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>56.81978237488929</v>
+        <v>60.19761103619729</v>
       </c>
       <c r="H21">
-        <v>21.31511957118458</v>
+        <v>22.23737511681253</v>
       </c>
       <c r="I21">
-        <v>35.5046628037047</v>
+        <v>37.96023591938476</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K21">
         <v>49.61103664277805</v>
@@ -2183,10 +2183,10 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>0.7156605708393955</v>
+        <v>0.7651570797182825</v>
       </c>
       <c r="O21">
-        <v>61.98964514603786</v>
+        <v>61.98964514603784</v>
       </c>
       <c r="P21">
         <v>12.3786085032598</v>
@@ -2195,22 +2195,22 @@
         <v>1.610997495151303</v>
       </c>
       <c r="R21">
-        <v>29.6691293505679</v>
+        <v>29.66912935056789</v>
       </c>
       <c r="S21">
-        <v>5.007803997494016</v>
+        <v>5.007803997494015</v>
       </c>
       <c r="T21">
-        <v>2.665703196509516</v>
+        <v>2.707046614988519</v>
       </c>
       <c r="U21">
-        <v>0.9804678864177513</v>
+        <v>0.9958582306495875</v>
       </c>
       <c r="V21">
-        <v>14.60587256900371</v>
+        <v>15.81496288126467</v>
       </c>
       <c r="W21">
-        <v>41.30347610611574</v>
+        <v>38.84790299043568</v>
       </c>
       <c r="X21">
         <v>76.80813890982044</v>
@@ -2219,7 +2219,7 @@
         <v>27.1971022670424</v>
       </c>
       <c r="Z21">
-        <v>1.518671941612233</v>
+        <v>1.428383899468282</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>52.24195983499406</v>
+        <v>61.79126831573342</v>
       </c>
       <c r="H23">
-        <v>21.89059845404072</v>
+        <v>23.77287115139169</v>
       </c>
       <c r="I23">
-        <v>30.35136138095334</v>
+        <v>38.01839716434173</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K23">
-        <v>43.25383377571218</v>
+        <v>44.77466649608247</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N23">
-        <v>0.701703380521987</v>
+        <v>0.8491050886480219</v>
       </c>
       <c r="O23">
-        <v>55.05288570134961</v>
+        <v>70.40384294772649</v>
       </c>
       <c r="P23">
-        <v>11.79905192563743</v>
+        <v>25.62917645164402</v>
       </c>
       <c r="Q23">
-        <v>1.540275098479072</v>
+        <v>1.010516441342824</v>
       </c>
       <c r="R23">
-        <v>25.08004790899131</v>
+        <v>18.87596231361985</v>
       </c>
       <c r="S23">
-        <v>4.665873669199524</v>
+        <v>2.747019323096913</v>
       </c>
       <c r="T23">
-        <v>2.386502129883565</v>
+        <v>2.599234561203437</v>
       </c>
       <c r="U23">
-        <v>0.8698287499350543</v>
+        <v>0.9552170021462457</v>
       </c>
       <c r="V23">
-        <v>11.31028949234486</v>
+        <v>15.31014645070039</v>
       </c>
       <c r="W23">
-        <v>69.26617180244827</v>
+        <v>61.59913601905988</v>
       </c>
       <c r="X23">
         <v>99.6175331834016</v>
       </c>
       <c r="Y23">
-        <v>56.36369940768942</v>
+        <v>54.84286668731913</v>
       </c>
       <c r="Z23">
-        <v>1.228914576763899</v>
+        <v>1.123193219826763</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>26.73159055060876</v>
+        <v>64.13830060902636</v>
       </c>
       <c r="H24">
-        <v>6.431791846093157</v>
+        <v>16.40299472337641</v>
       </c>
       <c r="I24">
-        <v>20.29979870451561</v>
+        <v>47.73530588564995</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K24">
-        <v>51.8030893326505</v>
+        <v>69.8572449355315</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N24">
-        <v>0.3918646352182134</v>
+        <v>0.6833264886083468</v>
       </c>
       <c r="O24">
-        <v>55.7413143601431</v>
+        <v>83.84713101953558</v>
       </c>
       <c r="P24">
-        <v>3.938225027492602</v>
+        <v>13.98988608400409</v>
       </c>
       <c r="Q24">
-        <v>2.649991480804569</v>
+        <v>1.790660626083982</v>
       </c>
       <c r="R24">
-        <v>41.36682656030376</v>
+        <v>44.80610676150512</v>
       </c>
       <c r="S24">
-        <v>14.15391806486807</v>
+        <v>5.993410562177888</v>
       </c>
       <c r="T24">
-        <v>4.15616537199447</v>
+        <v>3.910157973630321</v>
       </c>
       <c r="U24">
-        <v>1.424592863589336</v>
+        <v>1.363577775644115</v>
       </c>
       <c r="V24">
-        <v>11.13711394047922</v>
+        <v>25.3685468268462</v>
       </c>
       <c r="W24">
-        <v>80.21176224641817</v>
+        <v>52.77625506528383</v>
       </c>
       <c r="X24">
         <v>100.5115609509338</v>
       </c>
       <c r="Y24">
-        <v>48.70847161828328</v>
+        <v>30.65431601540229</v>
       </c>
       <c r="Z24">
-        <v>1.646772308419338</v>
+        <v>1.721658217354005</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>30.71152928918067</v>
+        <v>47.66020109627755</v>
       </c>
       <c r="H25">
-        <v>5.671025281957111</v>
+        <v>12.27110311029471</v>
       </c>
       <c r="I25">
-        <v>25.04050400722356</v>
+        <v>35.38909798598284</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K25">
-        <v>35.25407652726329</v>
+        <v>36.35089964501645</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N25">
-        <v>0.7102867660668633</v>
+        <v>0.9735411869190019</v>
       </c>
       <c r="O25">
-        <v>43.9897010807732</v>
+        <v>47.66020109627755</v>
       </c>
       <c r="P25">
-        <v>8.735624553509908</v>
+        <v>11.3093014512611</v>
       </c>
       <c r="Q25">
-        <v>1.61654609902877</v>
+        <v>1.438471166648505</v>
       </c>
       <c r="R25">
-        <v>21.13253673270691</v>
+        <v>20.08279559244126</v>
       </c>
       <c r="S25">
-        <v>5.035667548589696</v>
+        <v>4.214248006534741</v>
       </c>
       <c r="T25">
-        <v>5.41551620072868</v>
+        <v>3.883937790099207</v>
       </c>
       <c r="U25">
-        <v>1.68926820383727</v>
+        <v>1.356849533333557</v>
       </c>
       <c r="V25">
-        <v>15.46062131525612</v>
+        <v>18.7390574572915</v>
       </c>
       <c r="W25">
-        <v>40.28769745252868</v>
+        <v>29.93910347376939</v>
       </c>
       <c r="X25">
         <v>65.32820145975224</v>
       </c>
       <c r="Y25">
-        <v>30.07412493248894</v>
+        <v>28.97730181473578</v>
       </c>
       <c r="Z25">
-        <v>1.339613290260893</v>
+        <v>1.03319155334692</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>40.47728547367318</v>
+        <v>54.40841990665557</v>
       </c>
       <c r="H26">
-        <v>11.79031885850909</v>
+        <v>17.74348284398008</v>
       </c>
       <c r="I26">
-        <v>28.68696661516409</v>
+        <v>36.66493706267549</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K26">
-        <v>32.43760155103497</v>
+        <v>38.63769660107073</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N26">
-        <v>0.8843738514399745</v>
+        <v>0.9489421028700616</v>
       </c>
       <c r="O26">
-        <v>47.92694522333416</v>
+        <v>54.40841990665557</v>
       </c>
       <c r="P26">
-        <v>15.48934367229919</v>
+        <v>15.77072330558484</v>
       </c>
       <c r="Q26">
-        <v>1.129525594541997</v>
+        <v>1.238363653736125</v>
       </c>
       <c r="R26">
-        <v>14.94199143051592</v>
+        <v>19.10780606630523</v>
       </c>
       <c r="S26">
-        <v>3.094188252084928</v>
+        <v>3.449963508483348</v>
       </c>
       <c r="T26">
-        <v>3.433095063791312</v>
+        <v>3.066388960108528</v>
       </c>
       <c r="U26">
-        <v>1.233462205263531</v>
+        <v>1.120500634800049</v>
       </c>
       <c r="V26">
-        <v>14.14405391518726</v>
+        <v>16.78335327243204</v>
       </c>
       <c r="W26">
-        <v>43.18992352074354</v>
+        <v>35.21195307323214</v>
       </c>
       <c r="X26">
         <v>71.87689013590763</v>
       </c>
       <c r="Y26">
-        <v>39.43928858487266</v>
+        <v>33.2391935348369</v>
       </c>
       <c r="Z26">
-        <v>1.095098950068523</v>
+        <v>1.0593504032018</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>34.94752507857073</v>
+        <v>64.59255685621372</v>
       </c>
       <c r="H27">
-        <v>7.489588285180728</v>
+        <v>18.61410804141846</v>
       </c>
       <c r="I27">
-        <v>27.45793679339</v>
+        <v>45.97844881479526</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K27">
-        <v>47.45872743842106</v>
+        <v>61.51450568161183</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N27">
-        <v>0.5785645396627498</v>
+        <v>0.7474407589775907</v>
       </c>
       <c r="O27">
-        <v>68.66605101076186</v>
+        <v>87.79588613321481</v>
       </c>
       <c r="P27">
-        <v>21.2073235723408</v>
+        <v>26.28138045160297</v>
       </c>
       <c r="Q27">
-        <v>1.17490834066975</v>
+        <v>1.206153923731928</v>
       </c>
       <c r="R27">
-        <v>22.54206608999565</v>
+        <v>29.81511552881932</v>
       </c>
       <c r="S27">
-        <v>3.237846151426581</v>
+        <v>3.340611665924113</v>
       </c>
       <c r="T27">
-        <v>4.666147690350301</v>
+        <v>3.470086061200896</v>
       </c>
       <c r="U27">
-        <v>1.540333825552296</v>
+        <v>1.244179395150033</v>
       </c>
       <c r="V27">
-        <v>15.9214706182659</v>
+        <v>22.81915913056587</v>
       </c>
       <c r="W27">
-        <v>91.87201148033347</v>
+        <v>73.3514994589282</v>
       </c>
       <c r="X27">
         <v>119.3299482737235</v>
       </c>
       <c r="Y27">
-        <v>71.8712208353024</v>
+        <v>57.81544259211163</v>
       </c>
       <c r="Z27">
-        <v>1.278286502059902</v>
+        <v>1.26871811699901</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>60.37943587519274</v>
+        <v>77.01078918264986</v>
       </c>
       <c r="H28">
-        <v>4.427691228189447</v>
+        <v>15.25882434243758</v>
       </c>
       <c r="I28">
-        <v>55.9517446470033</v>
+        <v>61.75196484021227</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K28">
-        <v>56.89043896120356</v>
+        <v>65.48936724713653</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N28">
-        <v>0.9834999635907116</v>
+        <v>0.9429311571629566</v>
       </c>
       <c r="O28">
-        <v>70.77689545693586</v>
+        <v>88.54532080928152</v>
       </c>
       <c r="P28">
-        <v>13.88645649573229</v>
+        <v>23.05595356214499</v>
       </c>
       <c r="Q28">
-        <v>1.628618599765338</v>
+        <v>1.345590495353627</v>
       </c>
       <c r="R28">
-        <v>34.27469762742176</v>
+        <v>34.46549527259964</v>
       </c>
       <c r="S28">
-        <v>5.096829092338109</v>
+        <v>3.840453641208835</v>
       </c>
       <c r="T28">
-        <v>13.63677654186443</v>
+        <v>5.046967410750562</v>
       </c>
       <c r="U28">
-        <v>2.612770300576188</v>
+        <v>1.618787550184625</v>
       </c>
       <c r="V28">
-        <v>44.38320450586821</v>
+        <v>37.05116996422021</v>
       </c>
       <c r="W28">
-        <v>59.15427957273477</v>
+        <v>53.35405937952579</v>
       </c>
       <c r="X28">
         <v>115.1060242197381</v>
       </c>
       <c r="Y28">
-        <v>58.2155852585345</v>
+        <v>49.61665697260153</v>
       </c>
       <c r="Z28">
-        <v>1.016124450351766</v>
+        <v>1.07532555869268</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>52.34999579645174</v>
+        <v>74.90838225228184</v>
       </c>
       <c r="H29">
-        <v>21.86545532268742</v>
+        <v>26.57669354911227</v>
       </c>
       <c r="I29">
-        <v>30.48454047376432</v>
+        <v>48.33168870316956</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K29">
-        <v>46.45613129806149</v>
+        <v>51.06952031625388</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N29">
-        <v>0.6562005836899374</v>
+        <v>0.9463901051717349</v>
       </c>
       <c r="O29">
-        <v>63.93058884285929</v>
+        <v>83.27962897683847</v>
       </c>
       <c r="P29">
-        <v>17.4744575447978</v>
+        <v>32.21010866058458</v>
       </c>
       <c r="Q29">
-        <v>1.29705769962761</v>
+        <v>0.9499236323255071</v>
       </c>
       <c r="R29">
-        <v>23.79075159276572</v>
+        <v>20.47237689979211</v>
       </c>
       <c r="S29">
-        <v>3.658516361893684</v>
+        <v>2.585512202222016</v>
       </c>
       <c r="T29">
-        <v>2.394187316197061</v>
+        <v>2.818574180939975</v>
       </c>
       <c r="U29">
-        <v>0.8730438481003834</v>
+        <v>1.036231147490636</v>
       </c>
       <c r="V29">
-        <v>11.39503921837829</v>
+        <v>20.79209105026597</v>
       </c>
       <c r="W29">
-        <v>90.05572717949397</v>
+        <v>72.20857895008872</v>
       </c>
       <c r="X29">
         <v>120.5402676532583</v>
       </c>
       <c r="Y29">
-        <v>74.08413635519679</v>
+        <v>69.47074733700441</v>
       </c>
       <c r="Z29">
-        <v>1.215587190592616</v>
+        <v>1.039409848289137</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,19 +2879,19 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>62.14290891516765</v>
+        <v>68.54345644236176</v>
       </c>
       <c r="H30">
-        <v>20.85745052323869</v>
+        <v>15.55987466375625</v>
       </c>
       <c r="I30">
-        <v>41.28545839192896</v>
+        <v>52.98358177860551</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K30">
         <v>57.08652787430894</v>
@@ -2903,7 +2903,7 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>0.7232084333948245</v>
+        <v>0.9281275942243825</v>
       </c>
       <c r="O30">
         <v>68.54345644236176</v>
@@ -2921,16 +2921,16 @@
         <v>5.982707846629371</v>
       </c>
       <c r="T30">
-        <v>2.97941058740281</v>
+        <v>4.405141938708582</v>
       </c>
       <c r="U30">
-        <v>1.091725491492254</v>
+        <v>1.48277248105031</v>
       </c>
       <c r="V30">
-        <v>18.51484796817083</v>
+        <v>29.9118278185958</v>
       </c>
       <c r="W30">
-        <v>67.15839245703617</v>
+        <v>55.46026907035962</v>
       </c>
       <c r="X30">
         <v>108.4438508489651</v>
@@ -2939,7 +2939,7 @@
         <v>51.35732297465619</v>
       </c>
       <c r="Z30">
-        <v>1.307669258582218</v>
+        <v>1.079890186210215</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>49.03258751937141</v>
+        <v>62.62615537128044</v>
       </c>
       <c r="H31">
-        <v>11.03110799142084</v>
+        <v>26.22348837625039</v>
       </c>
       <c r="I31">
-        <v>38.00147952795057</v>
+        <v>36.40266699503005</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K31">
-        <v>50.50804706769814</v>
+        <v>51.04745373919614</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N31">
-        <v>0.7523846542119423</v>
+        <v>0.7131142560217205</v>
       </c>
       <c r="O31">
-        <v>64.22300364073698</v>
+        <v>71.26307887518746</v>
       </c>
       <c r="P31">
-        <v>13.71495657303884</v>
+        <v>20.21562513599132</v>
       </c>
       <c r="Q31">
-        <v>1.543874500678238</v>
+        <v>1.259922538486377</v>
       </c>
       <c r="R31">
-        <v>29.3338753366741</v>
+        <v>25.57733200076895</v>
       </c>
       <c r="S31">
-        <v>4.682698286262748</v>
+        <v>3.525148413457308</v>
       </c>
       <c r="T31">
-        <v>4.444937676025404</v>
+        <v>2.388170272113704</v>
       </c>
       <c r="U31">
-        <v>1.491765847725929</v>
+        <v>0.8705274962185955</v>
       </c>
       <c r="V31">
-        <v>21.54564936377239</v>
+        <v>13.57439931673536</v>
       </c>
       <c r="W31">
-        <v>58.47338832190604</v>
+        <v>60.07220085482655</v>
       </c>
       <c r="X31">
         <v>96.47486784985661</v>
       </c>
       <c r="Y31">
-        <v>45.96682078215847</v>
+        <v>45.42741411066046</v>
       </c>
       <c r="Z31">
-        <v>1.272078149563954</v>
+        <v>1.322377732276189</v>
       </c>
     </row>
   </sheetData>
